--- a/sensitivity-analysis/tables/log-odds/pillsmax.xlsx
+++ b/sensitivity-analysis/tables/log-odds/pillsmax.xlsx
@@ -29672,13 +29672,13 @@
         <v>-0.68057649475746385</v>
       </c>
       <c r="C4" s="61">
-        <v>0.41956146916065912</v>
+        <v>0.41956146916065917</v>
       </c>
       <c r="D4" s="65">
         <v>-1.5213964682980103</v>
       </c>
       <c r="E4" s="69">
-        <v>0.16024347878308254</v>
+        <v>0.16024347878308265</v>
       </c>
     </row>
   </sheetData>
@@ -29912,13 +29912,13 @@
         <v>-0.72077644444342159</v>
       </c>
       <c r="C3" s="784">
-        <v>0.54569980672254548</v>
+        <v>0.54569980672254603</v>
       </c>
       <c r="D3" s="788">
-        <v>-1.8143832953476311</v>
+        <v>-1.814383295347632</v>
       </c>
       <c r="E3" s="792">
-        <v>0.3728304064607878</v>
+        <v>0.37283040646078891</v>
       </c>
     </row>
   </sheetData>
@@ -30152,13 +30152,13 @@
         <v>-0.13201560549705094</v>
       </c>
       <c r="C3" s="997">
-        <v>0.67617109730130787</v>
+        <v>0.67617109730130776</v>
       </c>
       <c r="D3" s="1000">
-        <v>-1.4870927656546307</v>
+        <v>-1.4870927656546304</v>
       </c>
       <c r="E3" s="1003">
-        <v>1.2230615546605288</v>
+        <v>1.2230615546605286</v>
       </c>
     </row>
     <row r="4">
@@ -30383,10 +30383,10 @@
         <v>0.46581302563479754</v>
       </c>
       <c r="C3" s="115">
-        <v>0.29447187693286919</v>
+        <v>0.29447187693286914</v>
       </c>
       <c r="D3" s="119">
-        <v>-0.12432180315788066</v>
+        <v>-0.12432180315788055</v>
       </c>
       <c r="E3" s="123">
         <v>1.0559478544274756</v>
@@ -30460,13 +30460,13 @@
         <v>0.13377961705760757</v>
       </c>
       <c r="C4" s="1222">
-        <v>0.34024941906303202</v>
+        <v>0.34024941906303197</v>
       </c>
       <c r="D4" s="1226">
-        <v>-0.5480954562328223</v>
+        <v>-0.54809545623282219</v>
       </c>
       <c r="E4" s="1230">
-        <v>0.81565469034803739</v>
+        <v>0.81565469034803728</v>
       </c>
     </row>
   </sheetData>
@@ -30520,13 +30520,13 @@
         <v>-0.41421244218733622</v>
       </c>
       <c r="C3" s="1276">
-        <v>0.34945550077670651</v>
+        <v>0.34945550077670645</v>
       </c>
       <c r="D3" s="1280">
         <v>-1.1145369155105889</v>
       </c>
       <c r="E3" s="1284">
-        <v>0.28611203113591654</v>
+        <v>0.28611203113591643</v>
       </c>
     </row>
   </sheetData>
@@ -30794,13 +30794,13 @@
         <v>-0.14573522260836208</v>
       </c>
       <c r="C4" s="1522">
-        <v>0.29851476397854332</v>
+        <v>0.29851476397854326</v>
       </c>
       <c r="D4" s="1526">
         <v>-0.74397217809435068</v>
       </c>
       <c r="E4" s="1530">
-        <v>0.45250173287762657</v>
+        <v>0.45250173287762646</v>
       </c>
     </row>
   </sheetData>
@@ -30974,13 +30974,13 @@
         <v>-0.19022616831505146</v>
       </c>
       <c r="C3" s="1684">
-        <v>0.4085025109367787</v>
+        <v>0.40850251093677864</v>
       </c>
       <c r="D3" s="1688">
         <v>-1.0088834943184177</v>
       </c>
       <c r="E3" s="1692">
-        <v>0.62843115768831481</v>
+        <v>0.6284311576883147</v>
       </c>
     </row>
   </sheetData>
@@ -31034,13 +31034,13 @@
         <v>-0.25164132602830308</v>
       </c>
       <c r="C3" s="1738">
-        <v>0.62986429924143494</v>
+        <v>0.62986429924143517</v>
       </c>
       <c r="D3" s="1742">
-        <v>-1.5139175891031706</v>
+        <v>-1.5139175891031711</v>
       </c>
       <c r="E3" s="1746">
-        <v>1.0106349370465646</v>
+        <v>1.010634937046565</v>
       </c>
     </row>
   </sheetData>
@@ -31248,13 +31248,13 @@
         <v>-0.85733832494539541</v>
       </c>
       <c r="C3" s="1846">
-        <v>0.35031053306386556</v>
+        <v>0.35031053306386561</v>
       </c>
       <c r="D3" s="1850">
         <v>-1.5593763212632732</v>
       </c>
       <c r="E3" s="1854">
-        <v>-0.15530032862751775</v>
+        <v>-0.15530032862751764</v>
       </c>
     </row>
   </sheetData>
@@ -31368,13 +31368,13 @@
         <v>0.26978131238203984</v>
       </c>
       <c r="C3" s="250">
-        <v>0.37797367906796248</v>
+        <v>0.37797367906796242</v>
       </c>
       <c r="D3" s="253">
-        <v>-0.48769486737471401</v>
+        <v>-0.4876948673747139</v>
       </c>
       <c r="E3" s="256">
-        <v>1.0272574921387938</v>
+        <v>1.0272574921387936</v>
       </c>
     </row>
     <row r="4">
@@ -31385,13 +31385,13 @@
         <v>-0.073673531091694222</v>
       </c>
       <c r="C4" s="268">
-        <v>0.29964813013315139</v>
+        <v>0.29964813013315134</v>
       </c>
       <c r="D4" s="272">
         <v>-0.67418180310738163</v>
       </c>
       <c r="E4" s="276">
-        <v>0.52683474092399329</v>
+        <v>0.52683474092399307</v>
       </c>
     </row>
   </sheetData>
@@ -31445,13 +31445,13 @@
         <v>-0.15686635732931703</v>
       </c>
       <c r="C3" s="322">
-        <v>0.34931633093411657</v>
+        <v>0.34931633093411651</v>
       </c>
       <c r="D3" s="326">
         <v>-0.85691192805553618</v>
       </c>
       <c r="E3" s="330">
-        <v>0.54317921339690223</v>
+        <v>0.54317921339690201</v>
       </c>
     </row>
   </sheetData>
@@ -31582,13 +31582,13 @@
         <v>-0.42396182230368212</v>
       </c>
       <c r="C4" s="445">
-        <v>0.47496257283074284</v>
+        <v>0.47496257283074295</v>
       </c>
       <c r="D4" s="449">
-        <v>-1.3758080886427206</v>
+        <v>-1.3758080886427209</v>
       </c>
       <c r="E4" s="453">
-        <v>0.52788444403535628</v>
+        <v>0.5278844440353565</v>
       </c>
     </row>
   </sheetData>
@@ -31702,13 +31702,13 @@
         <v>-0.070688692237315304</v>
       </c>
       <c r="C3" s="550">
-        <v>0.37152449159519024</v>
+        <v>0.3715244915951903</v>
       </c>
       <c r="D3" s="553">
-        <v>-0.81524041148280635</v>
+        <v>-0.81524041148280646</v>
       </c>
       <c r="E3" s="556">
-        <v>0.67386302700817569</v>
+        <v>0.6738630270081758</v>
       </c>
     </row>
     <row r="4">
@@ -31719,13 +31719,13 @@
         <v>-0.50646003046157306</v>
       </c>
       <c r="C4" s="568">
-        <v>0.32278045224203561</v>
+        <v>0.32278045224203572</v>
       </c>
       <c r="D4" s="572">
-        <v>-1.1533265119249339</v>
+        <v>-1.1533265119249343</v>
       </c>
       <c r="E4" s="576">
-        <v>0.14040645100178784</v>
+        <v>0.14040645100178806</v>
       </c>
     </row>
   </sheetData>

--- a/sensitivity-analysis/tables/log-odds/pillsmax.xlsx
+++ b/sensitivity-analysis/tables/log-odds/pillsmax.xlsx
@@ -29672,13 +29672,13 @@
         <v>-0.68057649475746385</v>
       </c>
       <c r="C4" s="61">
-        <v>0.41956146916065917</v>
+        <v>0.41956146916065912</v>
       </c>
       <c r="D4" s="65">
         <v>-1.5213964682980103</v>
       </c>
       <c r="E4" s="69">
-        <v>0.16024347878308265</v>
+        <v>0.16024347878308254</v>
       </c>
     </row>
   </sheetData>
@@ -30383,10 +30383,10 @@
         <v>0.46581302563479754</v>
       </c>
       <c r="C3" s="115">
-        <v>0.29447187693286914</v>
+        <v>0.29447187693286919</v>
       </c>
       <c r="D3" s="119">
-        <v>-0.12432180315788055</v>
+        <v>-0.12432180315788066</v>
       </c>
       <c r="E3" s="123">
         <v>1.0559478544274756</v>
@@ -30974,13 +30974,13 @@
         <v>-0.19022616831505146</v>
       </c>
       <c r="C3" s="1684">
-        <v>0.40850251093677864</v>
+        <v>0.4085025109367787</v>
       </c>
       <c r="D3" s="1688">
         <v>-1.0088834943184177</v>
       </c>
       <c r="E3" s="1692">
-        <v>0.6284311576883147</v>
+        <v>0.62843115768831481</v>
       </c>
     </row>
   </sheetData>
@@ -31034,13 +31034,13 @@
         <v>-0.25164132602830308</v>
       </c>
       <c r="C3" s="1738">
-        <v>0.62986429924143517</v>
+        <v>0.62986429924143505</v>
       </c>
       <c r="D3" s="1742">
-        <v>-1.5139175891031711</v>
+        <v>-1.5139175891031709</v>
       </c>
       <c r="E3" s="1746">
-        <v>1.010634937046565</v>
+        <v>1.0106349370465648</v>
       </c>
     </row>
   </sheetData>
@@ -31385,10 +31385,10 @@
         <v>-0.073673531091694222</v>
       </c>
       <c r="C4" s="268">
-        <v>0.29964813013315134</v>
+        <v>0.29964813013315128</v>
       </c>
       <c r="D4" s="272">
-        <v>-0.67418180310738163</v>
+        <v>-0.67418180310738141</v>
       </c>
       <c r="E4" s="276">
         <v>0.52683474092399307</v>
@@ -31702,13 +31702,13 @@
         <v>-0.070688692237315304</v>
       </c>
       <c r="C3" s="550">
-        <v>0.3715244915951903</v>
+        <v>0.37152449159519024</v>
       </c>
       <c r="D3" s="553">
-        <v>-0.81524041148280646</v>
+        <v>-0.81524041148280635</v>
       </c>
       <c r="E3" s="556">
-        <v>0.6738630270081758</v>
+        <v>0.67386302700817569</v>
       </c>
     </row>
     <row r="4">
@@ -31719,13 +31719,13 @@
         <v>-0.50646003046157306</v>
       </c>
       <c r="C4" s="568">
-        <v>0.32278045224203572</v>
+        <v>0.32278045224203561</v>
       </c>
       <c r="D4" s="572">
-        <v>-1.1533265119249343</v>
+        <v>-1.1533265119249339</v>
       </c>
       <c r="E4" s="576">
-        <v>0.14040645100178806</v>
+        <v>0.14040645100178784</v>
       </c>
     </row>
   </sheetData>
